--- a/src/Hallazgo Admitidos.xlsx
+++ b/src/Hallazgo Admitidos.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7230"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Repetidos con distinta nriprs" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="135">
   <si>
     <t>CC</t>
   </si>
@@ -94,16 +94,349 @@
   </si>
   <si>
     <t xml:space="preserve">ADMINISTRACION FINANCIERA - SAN JUAN NEPOMUCENO                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC  </t>
+  </si>
+  <si>
+    <t>ANDRES DE JESUS</t>
+  </si>
+  <si>
+    <t>FONSECA HOYOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAESTRIA EN CIENCIAS FARMACEUTICAS                                                                  </t>
+  </si>
+  <si>
+    <t>agnprs</t>
+  </si>
+  <si>
+    <t>prdprs</t>
+  </si>
+  <si>
+    <t>ideprs</t>
+  </si>
+  <si>
+    <t>nriprs</t>
+  </si>
+  <si>
+    <t>snepgm</t>
+  </si>
+  <si>
+    <t>nomprs</t>
+  </si>
+  <si>
+    <t>apeprs</t>
+  </si>
+  <si>
+    <t>nompgm</t>
+  </si>
+  <si>
+    <t>codcnv</t>
+  </si>
+  <si>
+    <t>stddbi</t>
+  </si>
+  <si>
+    <t>REPETIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI  </t>
+  </si>
+  <si>
+    <t>ADRIANA PATRICIA</t>
+  </si>
+  <si>
+    <t>PINEDA JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIANA PATRICIAPINEDA JORGEADMINISTRACION DE EMPRESAS DISTANCIA - MAGANGUE                                                     </t>
+  </si>
+  <si>
+    <t>ALEXANDRA MARIA</t>
+  </si>
+  <si>
+    <t>DIAZ CASTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGENIERIA DE SISTEMAS - SAN JUAN NEPOMUCENO                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDRA MARIADIAZ CASTROINGENIERIA DE SISTEMAS - SAN JUAN NEPOMUCENO                                                        </t>
+  </si>
+  <si>
+    <t>ALVARO JOSE</t>
+  </si>
+  <si>
+    <t>VIDES CARRIAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECNICA PROFESIONAL EN PROCESOS DE GESTION PUBLICA - MAGANGUE                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVARO JOSEVIDES CARRIAZOTECNICA PROFESIONAL EN PROCESOS DE GESTION PUBLICA - MAGANGUE                                       </t>
+  </si>
+  <si>
+    <t>ANA VERONICA</t>
+  </si>
+  <si>
+    <t>MONTAÃ‘O CHAMORRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAESTRIA EN CONFLICTO SOCIAL Y CONSTRUCCION DE PAZ                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA VERONICAMONTAÃ‘O CHAMORROMAESTRIA EN CONFLICTO SOCIAL Y CONSTRUCCION DE PAZ                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRES DE JESUSFONSECA HOYOSMAESTRIA EN CIENCIAS FARMACEUTICAS                                                                  </t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES</t>
+  </si>
+  <si>
+    <t>BRUNO PEÃ‘A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGENIERIA DE SISTEMAS - CERETÃ‰                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS ANDRESBRUNO PEÃ‘AINGENIERIA DE SISTEMAS - CERETÃ‰                                                                     </t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO</t>
+  </si>
+  <si>
+    <t>OYOLA PATERNINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS EDUARDOOYOLA PATERNINAINGENIERIA DE SISTEMAS - CERETÃ‰                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL ENRIQUEDANIEL ENRIQUEADMINISTRACION FINANCIERA - SAN JUAN NEPOMUCENO                                                     </t>
+  </si>
+  <si>
+    <t>DEIMER  DAVID</t>
+  </si>
+  <si>
+    <t>CUELLO SPRENTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRACION FINANCIERA - MAGANGUE                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEIMER  DAVIDCUELLO SPRENTTADMINISTRACION FINANCIERA - MAGANGUE                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBLIN ESTELACONDE ARRIETAESPECIALIZACION EN INGENIERIA DE VIAS TERRESTRES                                                    </t>
+  </si>
+  <si>
+    <t>ERIKA PATRICIA</t>
+  </si>
+  <si>
+    <t>AVENDAÃ‘O OSPINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPECIALIZACION EN GESTION DEL RIESGO LABORAL                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERIKA PATRICIAAVENDAÃ‘O OSPINOESPECIALIZACION EN GESTION DEL RIESGO LABORAL                                                       </t>
+  </si>
+  <si>
+    <t>HEIDY</t>
+  </si>
+  <si>
+    <t>VELEZ ORTIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEIDYVELEZ ORTIZESPECIALIZACION EN GESTION DEL RIESGO LABORAL                                                       </t>
+  </si>
+  <si>
+    <t>HEINER DANIEL</t>
+  </si>
+  <si>
+    <t>BORNACHERA CERPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEINER DANIELBORNACHERA CERPAADMINISTRACION FINANCIERA - SAN JUAN NEPOMUCENO                                                     </t>
+  </si>
+  <si>
+    <t>JEISSON RAFAEL</t>
+  </si>
+  <si>
+    <t>MADERA MEDINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEISSON RAFAELMADERA MEDINAADMINISTRACION FINANCIERA - MAGANGUE                                                                </t>
+  </si>
+  <si>
+    <t>JESUS MIGUEL</t>
+  </si>
+  <si>
+    <t>ROQUEME SIERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRACION FINANCIERA - CERETÃ‰                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS MIGUELROQUEME SIERRAADMINISTRACION FINANCIERA - CERETÃ‰                                                                  </t>
+  </si>
+  <si>
+    <t>JOSE JAVIER</t>
+  </si>
+  <si>
+    <t>CARDENAS RICARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE JAVIERCARDENAS RICARDOADMINISTRACION DE EMPRESAS DISTANCIA - CERETÃ‰                                                       </t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>LUNA JIMENEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGENIERIA DE SISTEMAS - MAGANGUE                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE MANUELLUNA JIMENEZINGENIERIA DE SISTEMAS - MAGANGUE                                                                   </t>
+  </si>
+  <si>
+    <t>JULIA INES</t>
+  </si>
+  <si>
+    <t>BARROSO HOYOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRACION DE EMPRESAS DISTANCIA - LORICA                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIA INESBARROSO HOYOSADMINISTRACION DE EMPRESAS DISTANCIA - LORICA                                                       </t>
+  </si>
+  <si>
+    <t>JULIAN ALBERTO</t>
+  </si>
+  <si>
+    <t>CARDENAS MARTINEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRACION FINANCIERA - CARMEN DE BOLIVAR                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIAN ALBERTOCARDENAS MARTINEZADMINISTRACION FINANCIERA - CARMEN DE BOLIVAR                                                       </t>
+  </si>
+  <si>
+    <t>KELVIN ENRIQUE</t>
+  </si>
+  <si>
+    <t>AGRESOTT MARSIGLIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPECIALIZACION EN GERENCIA EN SALUD                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELVIN ENRIQUEAGRESOTT MARSIGLIAESPECIALIZACION EN GERENCIA EN SALUD                                                                </t>
+  </si>
+  <si>
+    <t>LEYSHON DANIEL</t>
+  </si>
+  <si>
+    <t>ANICHIARICO CABRERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facturar       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEYSHON DANIELANICHIARICO CABRERAINGENIERIA DE SISTEMAS - CERETÃ‰                                                                     </t>
+  </si>
+  <si>
+    <t>LORAINE CANDELARIA</t>
+  </si>
+  <si>
+    <t>DIAZ DIAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LORAINE CANDELARIADIAZ DIAZADMINISTRACION FINANCIERA - MAGANGUE                                                                </t>
+  </si>
+  <si>
+    <t>MANUEL JOAQUIN</t>
+  </si>
+  <si>
+    <t>MORENO TAPIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL JOAQUINMORENO TAPIAINGENIERIA DE SISTEMAS - SAN JUAN NEPOMUCENO                                                        </t>
+  </si>
+  <si>
+    <t>OSNERIS ANDRES</t>
+  </si>
+  <si>
+    <t>PALACIO TRUJILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGENIERIA DE SISTEMAS - CARMEN DE BOLIVAR                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSNERIS ANDRESPALACIO TRUJILLOINGENIERIA DE SISTEMAS - CARMEN DE BOLIVAR                                                          </t>
+  </si>
+  <si>
+    <t>ROGER EDUARDO</t>
+  </si>
+  <si>
+    <t>BALDOVINO DIAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPECIALIZACION EN MATEMATICA AVANZADA                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGER EDUARDOBALDOVINO DIAZESPECIALIZACION EN MATEMATICA AVANZADA                                                              </t>
+  </si>
+  <si>
+    <t>WENDY JOHANNA</t>
+  </si>
+  <si>
+    <t>ACUÃ‘A PEREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPECIALIZACION EN GESTION DE LA CALIDAD Y AUDITORIA EN SALUD                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WENDY JOHANNAACUÃ‘A PEREZESPECIALIZACION EN GESTION DE LA CALIDAD Y AUDITORIA EN SALUD                                       </t>
+  </si>
+  <si>
+    <t>YAIR ALFREDO</t>
+  </si>
+  <si>
+    <t>ARRIETA PETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAIR ALFREDOARRIETA PETROADMINISTRACION FINANCIERA - CERETÃ‰                                                                  </t>
+  </si>
+  <si>
+    <t>YHEILA</t>
+  </si>
+  <si>
+    <t>SIMANCA MARTINEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YHEILASIMANCA MARTINEZADMINISTRACION DE EMPRESAS DISTANCIA - MAGANGUE                                                     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,10 +474,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,6 +1127,38 @@
       </c>
       <c r="M7" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1045697774</v>
+      </c>
+      <c r="E8" s="3">
+        <v>53730</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -824,12 +1190,2001 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K57" sqref="K2:K57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>98022120290</v>
+      </c>
+      <c r="E2">
+        <v>54701</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>98022120298</v>
+      </c>
+      <c r="E3">
+        <v>54701</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>33227071</v>
+      </c>
+      <c r="E4">
+        <v>54744</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>33227072</v>
+      </c>
+      <c r="E5">
+        <v>54744</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>1066511170</v>
+      </c>
+      <c r="E6">
+        <v>54490</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>1066511172</v>
+      </c>
+      <c r="E7">
+        <v>54490</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2015</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>64585473</v>
+      </c>
+      <c r="E8">
+        <v>102460</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>64585476</v>
+      </c>
+      <c r="E9">
+        <v>102460</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>10456977</v>
+      </c>
+      <c r="E10">
+        <v>53730</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>1045697774</v>
+      </c>
+      <c r="E11">
+        <v>53730</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2015</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>1139120575</v>
+      </c>
+      <c r="E12">
+        <v>54744</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2015</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>1193120575</v>
+      </c>
+      <c r="E13">
+        <v>54744</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>1065006296</v>
+      </c>
+      <c r="E14">
+        <v>54744</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>1065009296</v>
+      </c>
+      <c r="E15">
+        <v>54744</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2015</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>1051820250</v>
+      </c>
+      <c r="E16">
+        <v>54595</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>1051820251</v>
+      </c>
+      <c r="E17">
+        <v>54595</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>1052976610</v>
+      </c>
+      <c r="E18">
+        <v>54595</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>1052976612</v>
+      </c>
+      <c r="E19">
+        <v>54595</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2015</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>30582600</v>
+      </c>
+      <c r="E20">
+        <v>17698</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2015</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>30582606</v>
+      </c>
+      <c r="E21">
+        <v>17698</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>1082877270</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2015</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>1082877273</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2015</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>1320350000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2015</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>1128045393</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2015</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>1050039296</v>
+      </c>
+      <c r="E26">
+        <v>54595</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2015</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>1051039296</v>
+      </c>
+      <c r="E27">
+        <v>54595</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2015</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>886609</v>
+      </c>
+      <c r="E28">
+        <v>54595</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2015</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>8866098</v>
+      </c>
+      <c r="E29">
+        <v>54595</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2015</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>1068669433</v>
+      </c>
+      <c r="E30">
+        <v>54595</v>
+      </c>
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2015</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>1068669443</v>
+      </c>
+      <c r="E31">
+        <v>54595</v>
+      </c>
+      <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2015</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>10678830</v>
+      </c>
+      <c r="E32">
+        <v>54701</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2015</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>1067883081</v>
+      </c>
+      <c r="E33">
+        <v>54701</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2015</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>1002494622</v>
+      </c>
+      <c r="E34">
+        <v>54744</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2015</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>1022494622</v>
+      </c>
+      <c r="E35">
+        <v>54744</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2015</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>1063136540</v>
+      </c>
+      <c r="E36">
+        <v>54701</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>1063136544</v>
+      </c>
+      <c r="E37">
+        <v>54701</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2015</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>1052091550</v>
+      </c>
+      <c r="E38">
+        <v>54595</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2015</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>1052091559</v>
+      </c>
+      <c r="E39">
+        <v>54595</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2015</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>7319070</v>
+      </c>
+      <c r="E40">
+        <v>3325</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2015</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41">
+        <v>73190704</v>
+      </c>
+      <c r="E41">
+        <v>3325</v>
+      </c>
+      <c r="F41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2015</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>1064989720</v>
+      </c>
+      <c r="E42">
+        <v>54744</v>
+      </c>
+      <c r="F42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2015</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>1064989724</v>
+      </c>
+      <c r="E43">
+        <v>54744</v>
+      </c>
+      <c r="F43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2015</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>1050965309</v>
+      </c>
+      <c r="E44">
+        <v>54595</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2015</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45">
+        <v>1050965308</v>
+      </c>
+      <c r="E45">
+        <v>54595</v>
+      </c>
+      <c r="F45" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2015</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>1051829265</v>
+      </c>
+      <c r="E46">
+        <v>54744</v>
+      </c>
+      <c r="F46" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2015</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47">
+        <v>96032313687</v>
+      </c>
+      <c r="E47">
+        <v>54744</v>
+      </c>
+      <c r="F47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2015</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48">
+        <v>1052081541</v>
+      </c>
+      <c r="E48">
+        <v>54744</v>
+      </c>
+      <c r="F48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2015</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49">
+        <v>1052081549</v>
+      </c>
+      <c r="E49">
+        <v>54744</v>
+      </c>
+      <c r="F49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2015</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>1102836749</v>
+      </c>
+      <c r="E50">
+        <v>7810</v>
+      </c>
+      <c r="F50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2015</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51">
+        <v>1102783674</v>
+      </c>
+      <c r="E51">
+        <v>7810</v>
+      </c>
+      <c r="F51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2015</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52">
+        <v>55245900</v>
+      </c>
+      <c r="E52">
+        <v>10461</v>
+      </c>
+      <c r="F52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" t="s">
+        <v>127</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2015</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>55245981</v>
+      </c>
+      <c r="E53">
+        <v>10461</v>
+      </c>
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2015</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54">
+        <v>1071350350</v>
+      </c>
+      <c r="E54">
+        <v>54595</v>
+      </c>
+      <c r="F54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2015</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55">
+        <v>1071350838</v>
+      </c>
+      <c r="E55">
+        <v>54595</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2015</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>1052996590</v>
+      </c>
+      <c r="E56">
+        <v>54701</v>
+      </c>
+      <c r="F56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2015</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <v>1052996594</v>
+      </c>
+      <c r="E57">
+        <v>54701</v>
+      </c>
+      <c r="F57" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K2:K57">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
